--- a/data/sample_sheets/G000304_Broomfield.sample_metadata.xlsx
+++ b/data/sample_sheets/G000304_Broomfield.sample_metadata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26212"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94864B3D-BE35-42B3-B086-C11FC53269EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF03884-8CCE-48D8-A741-10B2B5AB5160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Tube</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>Progressed to scRNA-seq</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Cell line</t>
   </si>
 </sst>
 </file>
@@ -114,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,6 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,19 +458,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="12.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="21.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +484,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -484,9 +498,14 @@
       <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="3">
+        <v>5899</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -496,9 +515,14 @@
       <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -508,9 +532,14 @@
       <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="3">
+        <v>5901</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -520,9 +549,14 @@
       <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -532,9 +566,14 @@
       <c r="C6" s="4">
         <v>6</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="3">
+        <v>5903</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -544,9 +583,14 @@
       <c r="C7" s="4">
         <v>7</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="3">
+        <v>5904</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -556,9 +600,14 @@
       <c r="C8" s="4">
         <v>8</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="3">
+        <v>5905</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -568,9 +617,14 @@
       <c r="C9" s="4">
         <v>9</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="3">
+        <v>5906</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -580,9 +634,14 @@
       <c r="C10" s="4">
         <v>10</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="3">
+        <v>5908</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -592,9 +651,14 @@
       <c r="C11" s="4">
         <v>11</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="3">
+        <v>5909</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -604,9 +668,14 @@
       <c r="C12" s="4">
         <v>12</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="3">
+        <v>5910</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -616,9 +685,14 @@
       <c r="C13" s="4">
         <v>13</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -628,9 +702,14 @@
       <c r="C14" s="4">
         <v>14</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="3">
+        <v>5914</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -640,9 +719,14 @@
       <c r="C15" s="4">
         <v>15</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="3">
+        <v>5915</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -652,9 +736,14 @@
       <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="3">
+        <v>5916</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -664,9 +753,14 @@
       <c r="C17" s="4">
         <v>3</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -676,9 +770,14 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -688,9 +787,14 @@
       <c r="C19" s="4">
         <v>7</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -700,9 +804,14 @@
       <c r="C20" s="4">
         <v>8</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="3">
+        <v>5912</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -712,9 +821,14 @@
       <c r="C21" s="4">
         <v>11</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" s="3">
+        <v>5913</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -724,9 +838,14 @@
       <c r="C22" s="4">
         <v>12</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -736,9 +855,14 @@
       <c r="C23" s="4">
         <v>15</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" s="3">
+        <v>5921</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -748,9 +872,14 @@
       <c r="C24" s="4">
         <v>8</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" s="3">
+        <v>5922</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -760,9 +889,14 @@
       <c r="C25" s="4">
         <v>9</v>
       </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="3">
+        <v>5923</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -772,9 +906,14 @@
       <c r="C26" s="4">
         <v>10</v>
       </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" s="3">
+        <v>5924</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -784,9 +923,14 @@
       <c r="C27" s="4">
         <v>14</v>
       </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" s="3">
+        <v>5925</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -796,7 +940,12 @@
       <c r="C28" s="4">
         <v>12</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/sample_sheets/G000304_Broomfield.sample_metadata.xlsx
+++ b/data/sample_sheets/G000304_Broomfield.sample_metadata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26212"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF03884-8CCE-48D8-A741-10B2B5AB5160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45544DDD-8C6D-42FE-AD73-1D2412C49A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Tube</t>
   </si>
@@ -48,7 +48,22 @@
     <t>Progressed to scRNA-seq</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>removed_1</t>
+  </si>
+  <si>
+    <t>removed_2</t>
+  </si>
+  <si>
+    <t>removed_3</t>
+  </si>
+  <si>
+    <t>removed_4</t>
+  </si>
+  <si>
+    <t>removed_5</t>
+  </si>
+  <si>
+    <t>removed_6</t>
   </si>
   <si>
     <t>Cell line</t>
@@ -461,7 +476,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -686,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -754,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -771,7 +786,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -788,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -839,7 +854,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -941,7 +956,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
